--- a/biology/Botanique/Quercus_viminea/Quercus_viminea.xlsx
+++ b/biology/Botanique/Quercus_viminea/Quercus_viminea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus viminea est une espèce de chênes du sous-genre Quercus et de la section Lobatae. L'espèce est présente au Mexique et ne le serait plus aux États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description originale, l'auteur indique que l'arbre type mesure 7 à 10 m de haut[2]. Ses feuilles sont lancéolées et mesurent de 40 à 100 mm pour une largeur de 10 à 15-20 mm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description originale, l'auteur indique que l'arbre type mesure 7 à 10 m de haut. Ses feuilles sont lancéolées et mesurent de 40 à 100 mm pour une largeur de 10 à 15-20 mm.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) William Trelease, « The American oaks », Memoirs of the National Academy of Sciences, Washington, NAS, vol. 20,‎ 1924, p. 1-676 (ISSN 0885-4637, OCLC 1759015, DOI 10.5962/BHL.TITLE.142965, lire en ligne)</t>
         </is>
